--- a/A3_Parallels/materials_DELETEME.xlsx
+++ b/A3_Parallels/materials_DELETEME.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="600" windowWidth="18585" windowHeight="7905" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Лист2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Лист3" sheetId="3" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="0Ayze6XR4jQ7XiG1U5cxL1Jk691jLLa6+e7tpuRCi6s="/>
@@ -194,52 +197,93 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="22.0"/>
+      <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7E3794"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
     </font>
   </fonts>
   <fills count="10">
@@ -247,7 +291,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -299,7 +343,13 @@
     </fill>
   </fills>
   <borders count="15">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -313,43 +363,59 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -359,6 +425,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -367,6 +434,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -375,9 +443,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -388,6 +458,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -399,11 +470,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -412,175 +489,171 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -591,11 +664,11 @@
     <xdr:ext cx="4181475" cy="2609850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -612,16 +685,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -811,2225 +876,2463 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.14"/>
-    <col customWidth="1" min="2" max="13" width="8.57"/>
-    <col customWidth="1" min="14" max="14" width="5.0"/>
-    <col customWidth="1" min="15" max="15" width="5.14"/>
-    <col customWidth="1" min="16" max="16" width="6.14"/>
-    <col customWidth="1" min="17" max="17" width="4.0"/>
-    <col customWidth="1" min="18" max="26" width="8.57"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="4" customWidth="1"/>
+    <col min="18" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="6" t="s">
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="I8" s="2">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G9" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" ht="84.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="33.0" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="I9" s="2">
         <v>11</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="13" t="s">
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="2">
         <v>12</v>
       </c>
-      <c r="C24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="16" t="s">
+      <c r="G10" s="2">
         <v>13</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="O24" s="16" t="s">
+      <c r="H10" s="2">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="21" spans="1:17" ht="84.75" customHeight="1">
+      <c r="A21" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:17" ht="33" customHeight="1">
+      <c r="A23" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B24" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="16">
-        <f t="shared" ref="P24:P44" si="1">C24*$C$23 + D24*$D$23+E24*$E$23+F24*$F$23+G24*$G$23+H24*$H$23</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16" t="s">
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="P25" s="16">
+      <c r="L24" s="10"/>
+      <c r="O24" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" ref="P24:P44" si="0">C24*$C$23 + D24*$D$23+E24*$E$23+F24*$F$23+G24*$G$23+H24*$H$23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B25" s="42"/>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="L25" s="10"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="42"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B26" s="42"/>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="L26" s="10"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="42"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B27" s="42"/>
+      <c r="C27" s="8">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="42"/>
+      <c r="L27" s="10"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q27" s="42"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B28" s="42"/>
+      <c r="C28" s="8">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="L28" s="10"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q28" s="42"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B29" s="42"/>
+      <c r="C29" s="8">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="L29" s="10"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q29" s="42"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B30" s="42"/>
+      <c r="C30" s="8">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="L30" s="10"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q30" s="42"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B31" s="42"/>
+      <c r="C31" s="8">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
+        <v>6</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+      <c r="I31" s="42"/>
+      <c r="K31" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="42"/>
+      <c r="P31" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q31" s="42"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1">
+      <c r="B32" s="42"/>
+      <c r="C32" s="8">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8">
+        <v>7</v>
+      </c>
+      <c r="E32" s="8">
+        <v>6</v>
+      </c>
+      <c r="F32" s="8">
+        <v>5</v>
+      </c>
+      <c r="G32" s="8">
+        <v>4</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+      <c r="I32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="10">
+        <v>1</v>
+      </c>
+      <c r="M32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="10">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q32" s="42"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B33" s="42"/>
+      <c r="C33" s="8">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8">
+        <v>8</v>
+      </c>
+      <c r="E33" s="8">
+        <v>7</v>
+      </c>
+      <c r="F33" s="8">
+        <v>6</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="10">
+        <v>2</v>
+      </c>
+      <c r="M33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="Q33" s="42"/>
+    </row>
+    <row r="34" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B34" s="42"/>
+      <c r="C34" s="8">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>9</v>
+      </c>
+      <c r="E34" s="8">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8">
+        <v>7</v>
+      </c>
+      <c r="G34" s="8">
+        <v>6</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+      <c r="I34" s="42"/>
+      <c r="J34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="10">
+        <v>3</v>
+      </c>
+      <c r="M34" s="42"/>
+      <c r="N34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="42"/>
+      <c r="P34" s="10">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="Q34" s="42"/>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B35" s="42"/>
+      <c r="C35" s="8">
+        <v>11</v>
+      </c>
+      <c r="D35" s="8">
+        <v>10</v>
+      </c>
+      <c r="E35" s="8">
+        <v>9</v>
+      </c>
+      <c r="F35" s="8">
+        <v>8</v>
+      </c>
+      <c r="G35" s="8">
+        <v>7</v>
+      </c>
+      <c r="H35" s="8">
+        <v>6</v>
+      </c>
+      <c r="I35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="10">
+        <v>4</v>
+      </c>
+      <c r="M35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="10">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Q35" s="42"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B36" s="42"/>
+      <c r="C36" s="8">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8">
+        <v>11</v>
+      </c>
+      <c r="E36" s="8">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8">
+        <v>9</v>
+      </c>
+      <c r="G36" s="8">
+        <v>8</v>
+      </c>
+      <c r="H36" s="8">
+        <v>7</v>
+      </c>
+      <c r="I36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="10">
+        <v>5</v>
+      </c>
+      <c r="M36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="10">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="Q36" s="42"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B37" s="42"/>
+      <c r="C37" s="8">
+        <v>13</v>
+      </c>
+      <c r="D37" s="8">
+        <v>12</v>
+      </c>
+      <c r="E37" s="8">
+        <v>11</v>
+      </c>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
+      <c r="G37" s="8">
+        <v>9</v>
+      </c>
+      <c r="H37" s="8">
+        <v>8</v>
+      </c>
+      <c r="I37" s="42"/>
+      <c r="L37" s="10"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="10">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="Q37" s="42"/>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B38" s="42"/>
+      <c r="C38" s="8">
+        <v>14</v>
+      </c>
+      <c r="D38" s="8">
+        <v>13</v>
+      </c>
+      <c r="E38" s="8">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8">
+        <v>11</v>
+      </c>
+      <c r="G38" s="8">
+        <v>10</v>
+      </c>
+      <c r="H38" s="8">
+        <v>9</v>
+      </c>
+      <c r="I38" s="42"/>
+      <c r="L38" s="10"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="10">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="Q38" s="42"/>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B39" s="42"/>
+      <c r="C39" s="8">
+        <v>15</v>
+      </c>
+      <c r="D39" s="8">
+        <v>14</v>
+      </c>
+      <c r="E39" s="8">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8">
+        <v>12</v>
+      </c>
+      <c r="G39" s="8">
+        <v>11</v>
+      </c>
+      <c r="H39" s="8">
+        <v>10</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="L39" s="10"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="10">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="Q39" s="42"/>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B40" s="42"/>
+      <c r="C40" s="9">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>15</v>
+      </c>
+      <c r="E40" s="8">
+        <v>14</v>
+      </c>
+      <c r="F40" s="8">
+        <v>13</v>
+      </c>
+      <c r="G40" s="8">
+        <v>12</v>
+      </c>
+      <c r="H40" s="8">
+        <v>11</v>
+      </c>
+      <c r="I40" s="42"/>
+      <c r="L40" s="10"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="10">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="Q40" s="42"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B41" s="42"/>
+      <c r="C41" s="9">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>15</v>
+      </c>
+      <c r="F41" s="8">
+        <v>14</v>
+      </c>
+      <c r="G41" s="8">
+        <v>13</v>
+      </c>
+      <c r="H41" s="8">
+        <v>12</v>
+      </c>
+      <c r="I41" s="42"/>
+      <c r="L41" s="10"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="10">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="Q41" s="42"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B42" s="42"/>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>15</v>
+      </c>
+      <c r="G42" s="8">
+        <v>14</v>
+      </c>
+      <c r="H42" s="8">
+        <v>13</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="L42" s="10"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="10">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="Q42" s="42"/>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B43" s="42"/>
+      <c r="C43" s="9">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>15</v>
+      </c>
+      <c r="H43" s="8">
+        <v>14</v>
+      </c>
+      <c r="I43" s="42"/>
+      <c r="L43" s="10"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="10">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="Q43" s="42"/>
+    </row>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B44" s="42"/>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>15</v>
+      </c>
+      <c r="I44" s="42"/>
+      <c r="L44" s="10"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="10">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="Q44" s="42"/>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="49" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A50" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:20" ht="48" customHeight="1">
+      <c r="A52" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A57" s="15">
+        <v>0</v>
+      </c>
+      <c r="B57" s="15">
+        <v>1</v>
+      </c>
+      <c r="C57" s="15">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="16">
+        <v>1</v>
+      </c>
+      <c r="H57" s="16">
+        <v>2</v>
+      </c>
+      <c r="I57" s="16">
+        <v>3</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>2</v>
+      </c>
+      <c r="N57" s="2">
+        <v>3</v>
+      </c>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A58" s="15">
+        <v>4</v>
+      </c>
+      <c r="B58" s="15">
+        <v>5</v>
+      </c>
+      <c r="C58" s="15">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2">
+        <v>7</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
+      <c r="G58" s="16">
+        <v>5</v>
+      </c>
+      <c r="H58" s="16">
+        <v>6</v>
+      </c>
+      <c r="I58" s="16">
+        <v>7</v>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="17">
+        <v>4</v>
+      </c>
+      <c r="L58" s="17">
+        <v>5</v>
+      </c>
+      <c r="M58" s="17">
+        <v>6</v>
+      </c>
+      <c r="N58" s="2">
+        <v>7</v>
+      </c>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A59" s="2">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>11</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="2">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2">
+        <v>9</v>
+      </c>
+      <c r="H59" s="2">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2">
+        <v>11</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="17">
+        <v>8</v>
+      </c>
+      <c r="L59" s="17">
+        <v>9</v>
+      </c>
+      <c r="M59" s="17">
+        <v>10</v>
+      </c>
+      <c r="N59" s="2">
+        <v>11</v>
+      </c>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A60" s="2">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2">
+        <v>15</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="2">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2">
+        <v>13</v>
+      </c>
+      <c r="H60" s="2">
+        <v>14</v>
+      </c>
+      <c r="I60" s="2">
+        <v>15</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="2">
+        <v>12</v>
+      </c>
+      <c r="L60" s="2">
+        <v>13</v>
+      </c>
+      <c r="M60" s="2">
+        <v>14</v>
+      </c>
+      <c r="N60" s="2">
+        <v>15</v>
+      </c>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A62" s="2">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>2</v>
+      </c>
+      <c r="N62" s="2">
+        <v>3</v>
+      </c>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A63" s="2">
+        <v>4</v>
+      </c>
+      <c r="B63" s="18">
+        <v>5</v>
+      </c>
+      <c r="C63" s="18">
+        <v>6</v>
+      </c>
+      <c r="D63" s="18">
+        <v>7</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2">
+        <v>7</v>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="2">
+        <v>4</v>
+      </c>
+      <c r="L63" s="2">
+        <v>5</v>
+      </c>
+      <c r="M63" s="2">
+        <v>6</v>
+      </c>
+      <c r="N63" s="2">
+        <v>7</v>
+      </c>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A64" s="2">
+        <v>8</v>
+      </c>
+      <c r="B64" s="18">
+        <v>9</v>
+      </c>
+      <c r="C64" s="18">
+        <v>10</v>
+      </c>
+      <c r="D64" s="18">
+        <v>11</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="19">
+        <v>8</v>
+      </c>
+      <c r="G64" s="19">
+        <v>9</v>
+      </c>
+      <c r="H64" s="19">
+        <v>10</v>
+      </c>
+      <c r="I64" s="2">
+        <v>11</v>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="2">
+        <v>8</v>
+      </c>
+      <c r="L64" s="20">
+        <v>9</v>
+      </c>
+      <c r="M64" s="20">
+        <v>10</v>
+      </c>
+      <c r="N64" s="20">
+        <v>11</v>
+      </c>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A65" s="2">
+        <v>12</v>
+      </c>
+      <c r="B65" s="2">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" s="2">
+        <v>15</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="19">
+        <v>12</v>
+      </c>
+      <c r="G65" s="19">
+        <v>13</v>
+      </c>
+      <c r="H65" s="19">
+        <v>14</v>
+      </c>
+      <c r="I65" s="2">
+        <v>15</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="2">
+        <v>12</v>
+      </c>
+      <c r="L65" s="20">
+        <v>13</v>
+      </c>
+      <c r="M65" s="20">
+        <v>14</v>
+      </c>
+      <c r="N65" s="20">
+        <v>15</v>
+      </c>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="67" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="68" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="15">
+        <v>0</v>
+      </c>
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
+        <v>2</v>
+      </c>
+      <c r="E68" s="15">
+        <v>4</v>
+      </c>
+      <c r="F68" s="15">
+        <v>5</v>
+      </c>
+      <c r="G68" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B69" s="16">
+        <v>1</v>
+      </c>
+      <c r="C69" s="16">
+        <v>2</v>
+      </c>
+      <c r="D69" s="16">
+        <v>3</v>
+      </c>
+      <c r="E69" s="16">
+        <v>5</v>
+      </c>
+      <c r="F69" s="16">
+        <v>6</v>
+      </c>
+      <c r="G69" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B70" s="17">
+        <v>4</v>
+      </c>
+      <c r="C70" s="17">
+        <v>5</v>
+      </c>
+      <c r="D70" s="17">
+        <v>6</v>
+      </c>
+      <c r="E70" s="17">
+        <v>8</v>
+      </c>
+      <c r="F70" s="17">
+        <v>9</v>
+      </c>
+      <c r="G70" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B71" s="18">
+        <v>5</v>
+      </c>
+      <c r="C71" s="18">
+        <v>6</v>
+      </c>
+      <c r="D71" s="18">
+        <v>7</v>
+      </c>
+      <c r="E71" s="18">
+        <v>9</v>
+      </c>
+      <c r="F71" s="18">
+        <v>10</v>
+      </c>
+      <c r="G71" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B72" s="19">
+        <v>8</v>
+      </c>
+      <c r="C72" s="19">
+        <v>9</v>
+      </c>
+      <c r="D72" s="19">
+        <v>10</v>
+      </c>
+      <c r="E72" s="19">
+        <v>12</v>
+      </c>
+      <c r="F72" s="19">
+        <v>13</v>
+      </c>
+      <c r="G72" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B73" s="20">
+        <v>9</v>
+      </c>
+      <c r="C73" s="20">
+        <v>10</v>
+      </c>
+      <c r="D73" s="20">
+        <v>11</v>
+      </c>
+      <c r="E73" s="20">
+        <v>13</v>
+      </c>
+      <c r="F73" s="20">
+        <v>14</v>
+      </c>
+      <c r="G73" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A76" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B79" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+    </row>
+    <row r="80" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+    </row>
+    <row r="82" spans="1:26" ht="15" customHeight="1">
+      <c r="A82" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A83" s="22">
+        <v>0</v>
+      </c>
+      <c r="C83" s="23">
+        <v>0</v>
+      </c>
+      <c r="D83" s="23">
+        <v>1</v>
+      </c>
+      <c r="E83" s="23">
+        <v>2</v>
+      </c>
+      <c r="F83" s="23">
+        <v>4</v>
+      </c>
+      <c r="G83" s="23">
+        <v>5</v>
+      </c>
+      <c r="H83" s="23">
+        <v>6</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10">
+        <f t="shared" ref="J83:J88" si="1">C83*$A$83+D83*$A$84+E83*$A$85+F83*$A$86+G83*$A$87+H83*$A$88</f>
+        <v>67</v>
+      </c>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A84" s="22">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>5</v>
+      </c>
+      <c r="G84" s="2">
+        <v>6</v>
+      </c>
+      <c r="H84" s="2">
+        <v>7</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="P26" s="16">
+        <v>82</v>
+      </c>
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A85" s="22">
+        <v>2</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>5</v>
+      </c>
+      <c r="E85" s="2">
+        <v>6</v>
+      </c>
+      <c r="F85" s="2">
+        <v>8</v>
+      </c>
+      <c r="G85" s="2">
+        <v>9</v>
+      </c>
+      <c r="H85" s="2">
+        <v>10</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D27" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="16"/>
-      <c r="P27" s="16">
+        <v>127</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="2">
+        <f>J83</f>
+        <v>67</v>
+      </c>
+      <c r="N85" s="2">
+        <f>J84</f>
+        <v>82</v>
+      </c>
+      <c r="O85" s="2">
+        <f>J85</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A86" s="22">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2">
+        <v>10</v>
+      </c>
+      <c r="H86" s="2">
+        <v>11</v>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10">
         <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="K86" s="10"/>
+      <c r="M86" s="2">
+        <f>J86</f>
+        <v>142</v>
+      </c>
+      <c r="N86" s="2">
+        <f>J87</f>
+        <v>187</v>
+      </c>
+      <c r="O86" s="2">
+        <f>J88</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A87" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D28" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E28" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="P28" s="16">
+      <c r="C87" s="2">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2">
+        <v>10</v>
+      </c>
+      <c r="F87" s="2">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2">
+        <v>13</v>
+      </c>
+      <c r="H87" s="2">
+        <v>14</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10">
         <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A88" s="24">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D29" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="F29" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="G29" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="H29" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L29" s="16"/>
-      <c r="P29" s="16">
+      <c r="E88" s="2">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2">
+        <v>13</v>
+      </c>
+      <c r="G88" s="2">
+        <v>14</v>
+      </c>
+      <c r="H88" s="2">
+        <v>15</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="D30" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="E30" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F30" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="G30" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="H30" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="P30" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="D31" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="E31" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="F31" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="G31" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="H31" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="16">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="D32" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="E32" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="F32" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="G32" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="H32" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="L32" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="P32" s="16">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="D33" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="E33" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="F33" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="G33" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="H33" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="L33" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="P33" s="16">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="D34" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="E34" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="F34" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="G34" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="H34" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="16">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="D35" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="E35" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="F35" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="G35" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="H35" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L35" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="P35" s="16">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="D36" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="E36" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="F36" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="G36" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="H36" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="L36" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="P36" s="16">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="D37" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="E37" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="F37" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="G37" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="H37" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="L37" s="16"/>
-      <c r="P37" s="16">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="D38" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="E38" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="F38" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="G38" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="H38" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="L38" s="16"/>
-      <c r="P38" s="16">
-        <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="D39" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="E39" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="F39" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="G39" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="H39" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="L39" s="16"/>
-      <c r="P39" s="16">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="E40" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="G40" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="H40" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="L40" s="16"/>
-      <c r="P40" s="16">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D41" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E41" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="F41" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="G41" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="H41" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="L41" s="16"/>
-      <c r="P41" s="16">
-        <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D42" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F42" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="G42" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="H42" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="P42" s="16">
-        <f t="shared" si="1"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="H43" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="L43" s="16"/>
-      <c r="P43" s="16">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D44" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G44" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="H44" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="L44" s="16"/>
-      <c r="P44" s="16">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="48.0" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K88" s="10"/>
+    </row>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B90" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="T90" s="42"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="42"/>
+      <c r="W90" s="42"/>
+      <c r="X90" s="42"/>
+      <c r="Y90" s="42"/>
+      <c r="Z90" s="42"/>
+    </row>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:26" ht="15" customHeight="1">
+      <c r="A92" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A93" s="22">
+        <v>0</v>
+      </c>
+      <c r="C93" s="23">
+        <v>0</v>
+      </c>
+      <c r="D93" s="23">
+        <v>1</v>
+      </c>
+      <c r="E93" s="23">
+        <v>2</v>
+      </c>
+      <c r="F93" s="23">
+        <v>4</v>
+      </c>
+      <c r="G93" s="23">
+        <v>5</v>
+      </c>
+      <c r="H93" s="23">
         <v>6</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="I93" s="10"/>
+      <c r="J93" s="10">
+        <f t="shared" ref="J93:J98" si="2">((C93+$A$94)*(D93+$A$93)+(E93+$A$96)*(F93+$A$95)+(G93+$A$98)*(H93+$A$97))-((C93*D93+E93*F93+G93*H93)+($A$93*$A$94+$A$95*$A$96+$A$97*$A$98))</f>
+        <v>67</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="25"/>
+      <c r="W93" s="25"/>
+      <c r="X93" s="25"/>
+    </row>
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A94" s="22">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>5</v>
+      </c>
+      <c r="G94" s="2">
+        <v>6</v>
+      </c>
+      <c r="H94" s="2">
         <v>7</v>
       </c>
-      <c r="E54" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="19"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="B57" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="C57" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G57" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="H57" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="I57" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L57" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M57" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="N57" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="B58" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="C58" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="D58" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G58" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="H58" s="22">
-        <v>6.0</v>
-      </c>
-      <c r="I58" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="J58" s="19"/>
-      <c r="K58" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="L58" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="M58" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="N58" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B59" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="C59" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="H59" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="J59" s="19"/>
-      <c r="K59" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="L59" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="M59" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="N59" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B60" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C60" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="D60" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="L60" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="M60" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="N60" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C62" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D62" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M62" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="N62" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B63" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="C63" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="D63" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G63" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="J63" s="19"/>
-      <c r="K63" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="L63" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="N63" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B64" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="C64" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="D64" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="G64" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="H64" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="L64" s="26">
-        <v>9.0</v>
-      </c>
-      <c r="M64" s="26">
-        <v>10.0</v>
-      </c>
-      <c r="N64" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B65" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="D65" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="25">
-        <v>12.0</v>
-      </c>
-      <c r="G65" s="25">
-        <v>13.0</v>
-      </c>
-      <c r="H65" s="25">
-        <v>14.0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="J65" s="19"/>
-      <c r="K65" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="L65" s="26">
-        <v>13.0</v>
-      </c>
-      <c r="M65" s="26">
-        <v>14.0</v>
-      </c>
-      <c r="N65" s="26">
-        <v>15.0</v>
-      </c>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="C68" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="E68" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="F68" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="G68" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C69" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="D69" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="E69" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="F69" s="22">
-        <v>6.0</v>
-      </c>
-      <c r="G69" s="22">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="C70" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="D70" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="E70" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="F70" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="G70" s="23">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="C71" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="D71" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="E71" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="F71" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="G71" s="24">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="C72" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="D72" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="E72" s="25">
-        <v>12.0</v>
-      </c>
-      <c r="F72" s="25">
-        <v>13.0</v>
-      </c>
-      <c r="G72" s="25">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="26">
-        <v>9.0</v>
-      </c>
-      <c r="C73" s="26">
-        <v>10.0</v>
-      </c>
-      <c r="D73" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="E73" s="26">
-        <v>13.0</v>
-      </c>
-      <c r="F73" s="26">
-        <v>14.0</v>
-      </c>
-      <c r="G73" s="26">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L79" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-    </row>
-    <row r="82" ht="15.0" customHeight="1">
-      <c r="A82" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="C83" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="E83" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="F83" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="G83" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="H83" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16">
-        <f t="shared" ref="J83:J88" si="2">C83*$A$83+D83*$A$84+E83*$A$85+F83*$A$86+G83*$A$87+H83*$A$88</f>
-        <v>67</v>
-      </c>
-      <c r="K83" s="16"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D84" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E84" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F84" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="G84" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="H84" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16">
+      <c r="I94" s="10"/>
+      <c r="J94" s="10">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="K84" s="16"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="B85" s="17" t="s">
+      <c r="K94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
+      <c r="X94" s="25"/>
+    </row>
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A95" s="22">
+        <v>2</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D85" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E85" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F85" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="G85" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="H85" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="I85" s="16" t="s">
+      <c r="C95" s="2">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5</v>
+      </c>
+      <c r="E95" s="2">
+        <v>6</v>
+      </c>
+      <c r="F95" s="2">
+        <v>8</v>
+      </c>
+      <c r="G95" s="2">
+        <v>9</v>
+      </c>
+      <c r="H95" s="2">
+        <v>10</v>
+      </c>
+      <c r="I95" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J95" s="10">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K95" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L95" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M85" s="4">
-        <f>J83</f>
+      <c r="M95" s="2">
+        <f>J93</f>
         <v>67</v>
       </c>
-      <c r="N85" s="4">
-        <f>J84</f>
+      <c r="N95" s="2">
+        <f>J94</f>
         <v>82</v>
       </c>
-      <c r="O85" s="4">
-        <f>J85</f>
+      <c r="O95" s="2">
+        <f>J95</f>
         <v>127</v>
       </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="C86" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D86" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E86" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="F86" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="G86" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H86" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16">
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="25"/>
+      <c r="X95" s="25"/>
+    </row>
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A96" s="22">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2">
+        <v>7</v>
+      </c>
+      <c r="F96" s="2">
+        <v>9</v>
+      </c>
+      <c r="G96" s="2">
+        <v>10</v>
+      </c>
+      <c r="H96" s="2">
+        <v>11</v>
+      </c>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="K86" s="16"/>
-      <c r="M86" s="4">
-        <f>J86</f>
+      <c r="K96" s="10"/>
+      <c r="M96" s="2">
+        <f>J96</f>
         <v>142</v>
       </c>
-      <c r="N86" s="4">
-        <f>J87</f>
+      <c r="N96" s="2">
+        <f>J97</f>
         <v>187</v>
       </c>
-      <c r="O86" s="4">
-        <f>J88</f>
+      <c r="O96" s="2">
+        <f>J98</f>
         <v>202</v>
       </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31">
-        <v>4.0</v>
-      </c>
-      <c r="C87" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="D87" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="F87" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="G87" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="H87" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16">
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+    </row>
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A97" s="22">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2">
+        <v>10</v>
+      </c>
+      <c r="F97" s="2">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2">
+        <v>13</v>
+      </c>
+      <c r="H97" s="2">
+        <v>14</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="K87" s="16"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="C88" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="D88" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="F88" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="G88" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="H88" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16">
+      <c r="K97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="25"/>
+      <c r="W97" s="25"/>
+      <c r="X97" s="25"/>
+    </row>
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A98" s="24">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2">
+        <v>10</v>
+      </c>
+      <c r="E98" s="2">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2">
+        <v>13</v>
+      </c>
+      <c r="G98" s="2">
+        <v>14</v>
+      </c>
+      <c r="H98" s="2">
+        <v>15</v>
+      </c>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10">
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="K88" s="16"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L90" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.0" customHeight="1">
-      <c r="A92" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="C93" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="D93" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="E93" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="F93" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="G93" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="H93" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16">
-        <f t="shared" ref="J93:J98" si="3">((C93+$A$94)*(D93+$A$93)+(E93+$A$96)*(F93+$A$95)+(G93+$A$98)*(H93+$A$97))-((C93*D93+E93*F93+G93*H93)+($A$93*$A$94+$A$95*$A$96+$A$97*$A$98))</f>
-        <v>67</v>
-      </c>
-      <c r="K93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="S93" s="34"/>
-      <c r="T93" s="34"/>
-      <c r="U93" s="34"/>
-      <c r="V93" s="34"/>
-      <c r="W93" s="34"/>
-      <c r="X93" s="34"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="C94" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D94" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E94" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F94" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="G94" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="H94" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16">
+      <c r="K98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="25"/>
+      <c r="X98" s="25"/>
+    </row>
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
+      <c r="X99" s="25"/>
+    </row>
+    <row r="100" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="101" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="102" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="103" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="104" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="105" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="106" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="107" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:24" ht="15" customHeight="1">
+      <c r="A108" s="51"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+    </row>
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A109" s="26"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+    </row>
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A110" s="8"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+    </row>
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A111" s="8"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+    </row>
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A112" s="8"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+    </row>
+    <row r="113" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A113" s="8"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+    </row>
+    <row r="114" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A114" s="8"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+    </row>
+    <row r="115" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A115" s="8"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+    </row>
+    <row r="116" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="117" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="118" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="119" spans="1:16" ht="33.75" customHeight="1">
+      <c r="C119" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+    </row>
+    <row r="120" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C120" s="9">
+        <v>0</v>
+      </c>
+      <c r="D120" s="9">
+        <v>1</v>
+      </c>
+      <c r="E120" s="9">
+        <v>4</v>
+      </c>
+      <c r="F120" s="9">
+        <v>5</v>
+      </c>
+      <c r="G120" s="9">
+        <v>8</v>
+      </c>
+      <c r="H120" s="9">
+        <v>9</v>
+      </c>
+      <c r="K120" s="9">
+        <f t="shared" ref="K120:K125" si="3">((C120+$A$94)*(D120+$A$93)+(E120+$A$96)*(F120+$A$95)+(G120+$A$98)*(H120+$A$97))-((C120*D120+E120*F120+G120*H120)+($A$93*$A$94+$A$95*$A$96+$A$97*$A$98))</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C121" s="9">
+        <v>1</v>
+      </c>
+      <c r="D121" s="9">
+        <v>2</v>
+      </c>
+      <c r="E121" s="9">
+        <v>5</v>
+      </c>
+      <c r="F121" s="9">
+        <v>6</v>
+      </c>
+      <c r="G121" s="9">
+        <v>9</v>
+      </c>
+      <c r="H121" s="9">
+        <v>10</v>
+      </c>
+      <c r="K121" s="9">
         <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="K94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="S94" s="34"/>
-      <c r="T94" s="34"/>
-      <c r="U94" s="34"/>
-      <c r="V94" s="34"/>
-      <c r="W94" s="34"/>
-      <c r="X94" s="34"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D95" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E95" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F95" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="G95" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="H95" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="I95" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" s="16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C122" s="9">
+        <v>2</v>
+      </c>
+      <c r="D122" s="9">
+        <v>3</v>
+      </c>
+      <c r="E122" s="9">
+        <v>6</v>
+      </c>
+      <c r="F122" s="9">
+        <v>7</v>
+      </c>
+      <c r="G122" s="9">
+        <v>10</v>
+      </c>
+      <c r="H122" s="9">
+        <v>11</v>
+      </c>
+      <c r="K122" s="9">
         <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="K95" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M95" s="4">
-        <f>J93</f>
-        <v>67</v>
-      </c>
-      <c r="N95" s="4">
-        <f>J94</f>
-        <v>82</v>
-      </c>
-      <c r="O95" s="4">
-        <f>J95</f>
-        <v>127</v>
-      </c>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="34"/>
-      <c r="T95" s="34"/>
-      <c r="U95" s="34"/>
-      <c r="V95" s="34"/>
-      <c r="W95" s="34"/>
-      <c r="X95" s="34"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="C96" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D96" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E96" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="F96" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="G96" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H96" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C123" s="9">
+        <v>4</v>
+      </c>
+      <c r="D123" s="9">
+        <v>5</v>
+      </c>
+      <c r="E123" s="9">
+        <v>8</v>
+      </c>
+      <c r="F123" s="9">
+        <v>9</v>
+      </c>
+      <c r="G123" s="9">
+        <v>12</v>
+      </c>
+      <c r="H123" s="9">
+        <v>13</v>
+      </c>
+      <c r="K123" s="9">
         <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="K96" s="16"/>
-      <c r="M96" s="4">
-        <f>J96</f>
-        <v>142</v>
-      </c>
-      <c r="N96" s="4">
-        <f>J97</f>
-        <v>187</v>
-      </c>
-      <c r="O96" s="4">
-        <f>J98</f>
-        <v>202</v>
-      </c>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="S96" s="34"/>
-      <c r="T96" s="34"/>
-      <c r="U96" s="34"/>
-      <c r="V96" s="34"/>
-      <c r="W96" s="34"/>
-      <c r="X96" s="34"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="31">
-        <v>4.0</v>
-      </c>
-      <c r="C97" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="D97" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="E97" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="F97" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="G97" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="H97" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C124" s="9">
+        <v>5</v>
+      </c>
+      <c r="D124" s="9">
+        <v>6</v>
+      </c>
+      <c r="E124" s="9">
+        <v>9</v>
+      </c>
+      <c r="F124" s="9">
+        <v>10</v>
+      </c>
+      <c r="G124" s="9">
+        <v>13</v>
+      </c>
+      <c r="H124" s="9">
+        <v>14</v>
+      </c>
+      <c r="K124" s="9">
         <f t="shared" si="3"/>
-        <v>187</v>
-      </c>
-      <c r="K97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="S97" s="34"/>
-      <c r="T97" s="34"/>
-      <c r="U97" s="34"/>
-      <c r="V97" s="34"/>
-      <c r="W97" s="34"/>
-      <c r="X97" s="34"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="C98" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="D98" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="E98" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="F98" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="G98" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="H98" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C125" s="9">
+        <v>6</v>
+      </c>
+      <c r="D125" s="9">
+        <v>7</v>
+      </c>
+      <c r="E125" s="9">
+        <v>10</v>
+      </c>
+      <c r="F125" s="9">
+        <v>11</v>
+      </c>
+      <c r="G125" s="9">
+        <v>14</v>
+      </c>
+      <c r="H125" s="9">
+        <v>15</v>
+      </c>
+      <c r="K125" s="9">
         <f t="shared" si="3"/>
-        <v>202</v>
-      </c>
-      <c r="K98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
-      <c r="U98" s="34"/>
-      <c r="V98" s="34"/>
-      <c r="W98" s="34"/>
-      <c r="X98" s="34"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="S99" s="34"/>
-      <c r="T99" s="34"/>
-      <c r="U99" s="34"/>
-      <c r="V99" s="34"/>
-      <c r="W99" s="34"/>
-      <c r="X99" s="34"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.0" customHeight="1">
-      <c r="A108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="N108" s="34"/>
-      <c r="O108" s="34"/>
-      <c r="P108" s="34"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="36"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="35"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="34"/>
-      <c r="O109" s="34"/>
-      <c r="P109" s="34"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="14"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="34"/>
-      <c r="O110" s="34"/>
-      <c r="P110" s="34"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="14"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="34"/>
-      <c r="O111" s="34"/>
-      <c r="P111" s="34"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="14"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="34"/>
-      <c r="O112" s="34"/>
-      <c r="P112" s="34"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="14"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="34"/>
-      <c r="O113" s="34"/>
-      <c r="P113" s="34"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="14"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="14"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="34"/>
-      <c r="P115" s="34"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="33.75" customHeight="1">
-      <c r="C119" s="37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D120" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E120" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="F120" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="G120" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="H120" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="K120" s="15">
-        <f t="shared" ref="K120:K125" si="4">((C120+$A$94)*(D120+$A$93)+(E120+$A$96)*(F120+$A$95)+(G120+$A$98)*(H120+$A$97))-((C120*D120+E120*F120+G120*H120)+($A$93*$A$94+$A$95*$A$96+$A$97*$A$98))</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D121" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E121" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F121" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="G121" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="H121" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="K121" s="15">
-        <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D122" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="E122" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="F122" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="G122" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="H122" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="K122" s="15">
-        <f t="shared" si="4"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="D123" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E123" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="F123" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="G123" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="H123" s="15">
-        <v>13.0</v>
-      </c>
-      <c r="K123" s="15">
-        <f t="shared" si="4"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D124" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="E124" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="F124" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="G124" s="15">
-        <v>13.0</v>
-      </c>
-      <c r="H124" s="15">
-        <v>14.0</v>
-      </c>
-      <c r="K124" s="15">
-        <f t="shared" si="4"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="D125" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="E125" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="F125" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="G125" s="15">
-        <v>14.0</v>
-      </c>
-      <c r="H125" s="15">
-        <v>15.0</v>
-      </c>
-      <c r="K125" s="15">
-        <f t="shared" si="4"/>
         <v>191</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="127" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -3904,159 +4207,156 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="H108:M108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="B90:J90"/>
+    <mergeCell ref="L90:R90"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="B79:J79"/>
+    <mergeCell ref="L79:R79"/>
+    <mergeCell ref="Q24:Q44"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B24:B44"/>
+    <mergeCell ref="I24:I44"/>
+    <mergeCell ref="O24:O44"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A12:N12"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B24:B44"/>
-    <mergeCell ref="I24:I44"/>
-    <mergeCell ref="O24:O44"/>
-    <mergeCell ref="Q24:Q44"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="B79:J79"/>
-    <mergeCell ref="L79:R79"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="B90:J90"/>
-    <mergeCell ref="L90:R90"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="H108:M108"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L79"/>
-    <hyperlink r:id="rId2" ref="L90"/>
+    <hyperlink ref="L79" r:id="rId1"/>
+    <hyperlink ref="L90" r:id="rId2"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.57"/>
-    <col customWidth="1" min="2" max="26" width="8.57"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:20" ht="30">
+      <c r="A4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="38"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="38"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="38"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="38"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="38"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="27"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="27"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="27"/>
+    </row>
+    <row r="10" spans="1:20" ht="30">
+      <c r="A10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="38"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="38"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="38"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="38"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="38"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="38"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="38"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:20">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="27"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="27"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="27"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5026,874 +5326,1748 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="S97" sqref="S97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="11.57"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="26" width="8.57"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:19" ht="28.5">
+      <c r="A1" s="56" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="S3" s="15" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="S3" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="B4" s="41">
-        <v>5.0</v>
-      </c>
-      <c r="C4" s="41">
-        <v>4.0</v>
-      </c>
-      <c r="D4" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="M4" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="N4" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="O4" s="43">
-        <v>-1.0</v>
-      </c>
-      <c r="P4" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="45">
-        <v>5.0</v>
-      </c>
-      <c r="B5" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="46">
-        <v>2.0</v>
-      </c>
-      <c r="M5" s="43">
-        <v>8.0</v>
-      </c>
-      <c r="N5" s="43">
-        <v>12.0</v>
-      </c>
-      <c r="O5" s="43">
-        <v>-9.0</v>
-      </c>
-      <c r="P5" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="S5" s="15">
-        <f t="shared" ref="S5:S7" si="1">M5/$M$4</f>
+    <row r="4" spans="1:19">
+      <c r="A4" s="29">
+        <v>0</v>
+      </c>
+      <c r="B4" s="29">
+        <v>5</v>
+      </c>
+      <c r="C4" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="47">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="47">
-        <v>6.0</v>
-      </c>
-      <c r="D6" s="48">
-        <v>7.0</v>
-      </c>
-      <c r="M6" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="N6" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="O6" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="P6" s="44">
-        <v>-2.0</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="S6" s="15">
+      <c r="D4" s="30">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+      <c r="N4" s="9">
+        <v>3</v>
+      </c>
+      <c r="O4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="32">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>8</v>
+      </c>
+      <c r="N5" s="9">
+        <v>12</v>
+      </c>
+      <c r="O5" s="9">
+        <v>-9</v>
+      </c>
+      <c r="P5" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>3</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" ref="S5:S7" si="0">M5/$M$4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="34">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34">
+        <v>6</v>
+      </c>
+      <c r="D6" s="35">
+        <v>7</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="9">
+        <v>6</v>
+      </c>
+      <c r="O6" s="9">
+        <v>3</v>
+      </c>
+      <c r="P6" s="31">
+        <v>-2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>3</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="M7" s="9">
+        <v>2</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3</v>
+      </c>
+      <c r="O7" s="9">
+        <v>9</v>
+      </c>
+      <c r="P7" s="31">
+        <v>-7</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>3</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="29">
+        <v>5</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30">
+        <v>2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>3</v>
+      </c>
+      <c r="O10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="32">
+        <v>0</v>
+      </c>
+      <c r="B11" s="32">
+        <v>5</v>
+      </c>
+      <c r="C11" s="32">
+        <v>4</v>
+      </c>
+      <c r="D11" s="33">
+        <v>3</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" ref="M11:Q11" si="1">M5-($M$10:$Q$10)*$S5</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="34">
+        <v>3</v>
+      </c>
+      <c r="B12" s="34">
+        <v>4</v>
+      </c>
+      <c r="C12" s="34">
+        <v>6</v>
+      </c>
+      <c r="D12" s="35">
+        <v>7</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" ref="M12:Q12" si="2">M6-($M$10:$Q$10)*$S6</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="M13" s="9">
+        <f t="shared" ref="M13:Q13" si="3">M7-($M$10:$Q$10)*$S7</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="M7" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="N7" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="O7" s="43">
-        <v>9.0</v>
-      </c>
-      <c r="P7" s="44">
-        <v>-7.0</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="S7" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="41">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="41">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="41">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="M10" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="N10" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="O10" s="43">
-        <v>-1.0</v>
-      </c>
-      <c r="P10" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="Q10" s="44">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="B11" s="45">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="45">
-        <v>4.0</v>
-      </c>
-      <c r="D11" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="M11" s="43">
-        <f t="shared" ref="M11:Q11" si="2">M5-M10*$S$5</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="43">
-        <f t="shared" si="2"/>
+    <row r="15" spans="1:19">
+      <c r="A15" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="29">
+        <v>5</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="30">
+        <v>2</v>
+      </c>
+      <c r="M16" s="9">
+        <v>2</v>
+      </c>
+      <c r="N16" s="9">
+        <v>3</v>
+      </c>
+      <c r="O16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="32">
+        <v>0</v>
+      </c>
+      <c r="B17" s="32">
+        <v>5</v>
+      </c>
+      <c r="C17" s="32">
+        <v>4</v>
+      </c>
+      <c r="D17" s="33">
+        <v>3</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
         <v>-5</v>
       </c>
-      <c r="P11" s="44">
-        <f t="shared" si="2"/>
+      <c r="P17" s="9">
         <v>4</v>
       </c>
-      <c r="Q11" s="44">
-        <f t="shared" si="2"/>
+      <c r="Q17" s="9">
         <v>-1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="B12" s="47">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="47">
-        <v>6.0</v>
-      </c>
-      <c r="D12" s="48">
-        <v>7.0</v>
-      </c>
-      <c r="M12" s="43">
-        <f t="shared" ref="M12:Q12" si="3">M6-M10*$S$6</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="43">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="44">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="Q12" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="M13" s="43">
-        <f t="shared" ref="M13:Q13" si="4">M7-M10*$S$7</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="43">
+    <row r="18" spans="1:19">
+      <c r="A18" s="34">
+        <f t="shared" ref="A18:D18" si="4">A12-A16*$F$18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="43">
+        <v>3.4</v>
+      </c>
+      <c r="C18" s="34">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P13" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="D18" s="35">
         <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="Q13" s="44">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="41">
-        <v>5.0</v>
-      </c>
-      <c r="B16" s="41">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="41">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="M16" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="N16" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="O16" s="43">
-        <v>-1.0</v>
-      </c>
-      <c r="P16" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="B17" s="45">
-        <v>5.0</v>
-      </c>
-      <c r="C17" s="45">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="M17" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="O17" s="43">
-        <v>-5.0</v>
-      </c>
-      <c r="P17" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="47">
-        <f t="shared" ref="A18:D18" si="5">A12-A16*$F$18</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="47">
-        <f t="shared" si="5"/>
-        <v>3.4</v>
-      </c>
-      <c r="C18" s="47">
-        <f t="shared" si="5"/>
-        <v>4.8</v>
-      </c>
-      <c r="D18" s="48">
-        <f t="shared" si="5"/>
         <v>5.8</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="25">
         <f>A12/A16</f>
         <v>0.6</v>
       </c>
-      <c r="M18" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="O18" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="P18" s="43">
-        <v>-8.0</v>
-      </c>
-      <c r="Q18" s="43">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="M19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="P19" s="43">
-        <v>-4.0</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="S19" s="15">
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>10</v>
+      </c>
+      <c r="P18" s="9">
+        <v>-8</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>5</v>
+      </c>
+      <c r="P19" s="9">
+        <v>-4</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>1</v>
+      </c>
+      <c r="S19" s="9">
         <f>O19/O18</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="F21" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41">
-        <v>5.0</v>
-      </c>
-      <c r="B22" s="41">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="41">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="M22" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="N22" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="O22" s="43">
-        <v>-1.0</v>
-      </c>
-      <c r="P22" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="B23" s="45">
-        <v>5.0</v>
-      </c>
-      <c r="C23" s="45">
-        <v>4.0</v>
-      </c>
-      <c r="D23" s="46">
-        <v>3.0</v>
-      </c>
-      <c r="M23" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="O23" s="43">
-        <v>-5.0</v>
-      </c>
-      <c r="P23" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="B24" s="47">
-        <f t="shared" ref="B24:D24" si="6">B18-B23*$F$24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="50">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="29">
+        <v>5</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2</v>
+      </c>
+      <c r="D22" s="30">
+        <v>2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>2</v>
+      </c>
+      <c r="N22" s="9">
+        <v>3</v>
+      </c>
+      <c r="O22" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="32">
+        <v>0</v>
+      </c>
+      <c r="B23" s="32">
+        <v>5</v>
+      </c>
+      <c r="C23" s="32">
+        <v>4</v>
+      </c>
+      <c r="D23" s="33">
+        <v>3</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>-5</v>
+      </c>
+      <c r="P23" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="34">
+        <v>0</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" ref="B24:D24" si="5">B18-B23*$F$24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="37">
+        <f t="shared" si="5"/>
+        <v>2.08</v>
+      </c>
+      <c r="D24" s="37">
+        <f t="shared" si="5"/>
+        <v>3.76</v>
+      </c>
+      <c r="F24" s="25">
+        <f>B18/B23</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>10</v>
+      </c>
+      <c r="P24" s="9">
+        <v>-8</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" ref="O25:Q25" si="6">O19-O18*$S$19</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
         <f t="shared" si="6"/>
-        <v>2.08</v>
-      </c>
-      <c r="D24" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
         <f t="shared" si="6"/>
-        <v>3.76</v>
-      </c>
-      <c r="F24" s="34">
-        <f>B18/B23</f>
-        <v>0.68</v>
-      </c>
-      <c r="M24" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="O24" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="P24" s="43">
-        <v>-8.0</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="M25" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="O25" s="43">
-        <f t="shared" ref="O25:Q25" si="7">O19-O18*$S$19</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A27" s="57" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="45" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A29" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="32">
         <f>D24/C24</f>
-        <v>1.807692308</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="34"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="45" t="s">
+        <v>1.8076923076923075</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A30" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="32">
         <f>(D23-C23*B29)/B23</f>
-        <v>-0.8461538462</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="S30" s="49" t="s">
+        <v>-0.84615384615384603</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="S30" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A31" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="32">
         <f>(D22-C22*B29-B22*B30)/A22</f>
-        <v>-0.1538461538</v>
-      </c>
-      <c r="M31" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="N31" s="43">
-        <v>-3.0</v>
-      </c>
-      <c r="O31" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="P31" s="44">
-        <v>-1.0</v>
-      </c>
-      <c r="Q31" s="43">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="M32" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="N32" s="43">
-        <v>-2.0</v>
-      </c>
-      <c r="O32" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="P32" s="44">
-        <v>-3.0</v>
-      </c>
-      <c r="Q32" s="43">
-        <v>7.0</v>
-      </c>
-      <c r="S32" s="15">
+        <v>-0.1538461538461538</v>
+      </c>
+      <c r="M31" s="9">
+        <v>4</v>
+      </c>
+      <c r="N31" s="9">
+        <v>-3</v>
+      </c>
+      <c r="O31" s="9">
+        <v>2</v>
+      </c>
+      <c r="P31" s="31">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M32" s="9">
+        <v>3</v>
+      </c>
+      <c r="N32" s="9">
+        <v>-2</v>
+      </c>
+      <c r="O32" s="9">
+        <v>1</v>
+      </c>
+      <c r="P32" s="31">
+        <v>-3</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>7</v>
+      </c>
+      <c r="S32" s="9">
         <f>M32/M31</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="M33" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="N33" s="43">
-        <v>-3.0</v>
-      </c>
-      <c r="O33" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="P33" s="44">
-        <v>-8.0</v>
-      </c>
-      <c r="Q33" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="S33" s="15">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M33" s="9">
+        <v>5</v>
+      </c>
+      <c r="N33" s="9">
+        <v>-3</v>
+      </c>
+      <c r="O33" s="9">
+        <v>1</v>
+      </c>
+      <c r="P33" s="31">
+        <v>-8</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="S33" s="9">
         <f>M33/M31</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A34" s="57" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="15" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="15">
-        <f t="shared" ref="B36:B38" si="8">A4*$B$31+B4*$B$30+C4*$B$29</f>
+      <c r="B36" s="9">
+        <f t="shared" ref="B36:B38" si="7">A4*$B$31+B4*$B$30+C4*$B$29</f>
         <v>3</v>
       </c>
-      <c r="C36" s="34" t="b">
-        <f t="shared" ref="C36:C38" si="9">D4=B36</f>
-        <v>1</v>
-      </c>
-      <c r="S36" s="49" t="s">
+      <c r="C36" s="25" t="b">
+        <f t="shared" ref="C36:C38" si="8">D4=B36</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="25" t="b">
         <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>4</v>
+      </c>
+      <c r="N37" s="9">
+        <v>-3</v>
+      </c>
+      <c r="O37" s="9">
         <v>2</v>
       </c>
-      <c r="C37" s="34" t="b">
+      <c r="P37" s="31">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C38" s="25" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" ref="M38:Q38" si="9">M32-M31*$S$32</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M37" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="N37" s="43">
-        <v>-3.0</v>
-      </c>
-      <c r="O37" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="P37" s="44">
-        <v>-1.0</v>
-      </c>
-      <c r="Q37" s="43">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="15">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="C38" s="34" t="b">
+        <v>0.25</v>
+      </c>
+      <c r="O38" s="9">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M38" s="43">
-        <f t="shared" ref="M38:Q38" si="10">M32-M31*$S$32</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="43">
+        <v>-0.5</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" si="9"/>
+        <v>-2.25</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M39" s="9">
+        <f t="shared" ref="M39:Q39" si="10">M33-M31*$S$33</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
         <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="O38" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="O39" s="9">
         <f t="shared" si="10"/>
-        <v>-0.5</v>
-      </c>
-      <c r="P38" s="43">
+        <v>-1.5</v>
+      </c>
+      <c r="P39" s="9">
         <f t="shared" si="10"/>
-        <v>-2.25</v>
-      </c>
-      <c r="Q38" s="43">
+        <v>-6.75</v>
+      </c>
+      <c r="Q39" s="9">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="M39" s="43">
-        <f t="shared" ref="M39:Q39" si="11">M33-M31*$S$33</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="43">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
-      </c>
-      <c r="O39" s="43">
-        <f t="shared" si="11"/>
-        <v>-1.5</v>
-      </c>
-      <c r="P39" s="43">
-        <f t="shared" si="11"/>
-        <v>-6.75</v>
-      </c>
-      <c r="Q39" s="43">
-        <f t="shared" si="11"/>
         <v>-9</v>
       </c>
-      <c r="S39" s="15">
+      <c r="S39" s="9">
         <f>N39/N38</f>
         <v>3</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="S42" s="43" t="s">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1">
+      <c r="S42" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="M43" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="N43" s="43">
-        <v>-3.0</v>
-      </c>
-      <c r="O43" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="P43" s="43">
-        <v>-1.0</v>
-      </c>
-      <c r="Q43" s="43">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="M44" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N44" s="43">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M43" s="9">
+        <v>4</v>
+      </c>
+      <c r="N43" s="9">
+        <v>-3</v>
+      </c>
+      <c r="O43" s="9">
+        <v>2</v>
+      </c>
+      <c r="P43" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
         <v>0.25</v>
       </c>
-      <c r="O44" s="43">
+      <c r="O44" s="9">
         <v>-0.5</v>
       </c>
-      <c r="P44" s="43">
+      <c r="P44" s="9">
         <v>-2.25</v>
       </c>
-      <c r="Q44" s="43">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="M45" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="N45" s="43">
-        <f t="shared" ref="N45:Q45" si="12">N39-N38*$S$39</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="43">
+      <c r="Q44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" ref="N45:Q45" si="11">N39-N38*$S$39</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="11"/>
+        <v>-12</v>
+      </c>
+      <c r="S45" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="49" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>-3</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>-2</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>-3</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <f>A52/$A$51</f>
+        <v>0.75</v>
+      </c>
+      <c r="M52" s="38">
+        <v>0</v>
+      </c>
+      <c r="N52" s="38">
+        <v>11</v>
+      </c>
+      <c r="O52" s="38">
+        <v>2</v>
+      </c>
+      <c r="P52" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>-3</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>-8</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f>A53/$A$51</f>
+        <v>1.25</v>
+      </c>
+      <c r="M53" s="38">
+        <v>0</v>
+      </c>
+      <c r="N53" s="38">
+        <v>1</v>
+      </c>
+      <c r="O53" s="38">
+        <v>10</v>
+      </c>
+      <c r="P53" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D54" s="38"/>
+      <c r="M54" s="38">
+        <v>2</v>
+      </c>
+      <c r="N54" s="38">
+        <v>1</v>
+      </c>
+      <c r="O54" s="38">
+        <v>2</v>
+      </c>
+      <c r="P54" s="38">
+        <v>9</v>
+      </c>
+      <c r="Q54" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D55" s="38"/>
+      <c r="M55" s="38">
+        <v>1</v>
+      </c>
+      <c r="N55" s="38">
+        <v>0</v>
+      </c>
+      <c r="O55" s="38">
+        <v>0</v>
+      </c>
+      <c r="P55" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>-3</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="M56" s="38">
+        <v>0</v>
+      </c>
+      <c r="N56" s="38">
+        <v>5</v>
+      </c>
+      <c r="O56" s="38">
+        <v>0</v>
+      </c>
+      <c r="P56" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A57">
+        <f>A52-($A$51:$E$51)*$G52</f>
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <f>B52-($A$51:$E$51)*$G52</f>
+        <v>0.25</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="B57:E58" si="12">C52-($A$51:$E$51)*$G52</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="43">
+        <v>-2.25</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="43">
+        <v>1</v>
+      </c>
+      <c r="M57" s="38">
+        <v>2</v>
+      </c>
+      <c r="N57" s="38">
+        <v>2</v>
+      </c>
+      <c r="O57" s="38">
+        <v>0</v>
+      </c>
+      <c r="P57" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A58">
+        <f>A53-($A$51:$E$51)*$G53</f>
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <f>B53-($A$51:$E$51)*$G53</f>
+        <v>0.75</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="12"/>
+        <v>-1.5</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="12"/>
+        <v>-6.75</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="G58">
+        <f>B58/B57</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" customHeight="1">
+      <c r="E59" s="58"/>
+    </row>
+    <row r="60" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M60" s="38">
+        <v>2</v>
+      </c>
+      <c r="N60" s="38">
+        <v>1</v>
+      </c>
+      <c r="O60" s="38">
+        <v>2</v>
+      </c>
+      <c r="P60" s="38">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>-3</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="M61" s="38">
+        <v>0</v>
+      </c>
+      <c r="N61" s="38">
+        <v>1</v>
+      </c>
+      <c r="O61" s="38">
+        <v>10</v>
+      </c>
+      <c r="P61" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="38">
+        <v>0</v>
+      </c>
+      <c r="S61" s="39">
+        <f t="shared" ref="S61:S65" si="13">M61/$M$60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0.25</v>
+      </c>
+      <c r="C62">
+        <v>-0.5</v>
+      </c>
+      <c r="D62">
+        <v>-2.25</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="38">
+        <v>0</v>
+      </c>
+      <c r="N62" s="38">
+        <v>11</v>
+      </c>
+      <c r="O62" s="38">
+        <v>2</v>
+      </c>
+      <c r="P62" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="38">
+        <v>2</v>
+      </c>
+      <c r="S62" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <f>B58-($B$62:$E$62)*$G58</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:E63" si="14">C58-($B$62:$E$62)*$G58</f>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="14"/>
         <v>-12</v>
       </c>
-      <c r="S45" s="15">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+      <c r="M63" s="38">
+        <v>1</v>
+      </c>
+      <c r="N63" s="38">
+        <v>0</v>
+      </c>
+      <c r="O63" s="38">
+        <v>0</v>
+      </c>
+      <c r="P63" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="38">
+        <v>1</v>
+      </c>
+      <c r="S63" s="39">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M64" s="38">
+        <v>0</v>
+      </c>
+      <c r="N64" s="38">
+        <v>5</v>
+      </c>
+      <c r="O64" s="38">
+        <v>0</v>
+      </c>
+      <c r="P64" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="38">
+        <v>0</v>
+      </c>
+      <c r="S64" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M65" s="38">
+        <v>2</v>
+      </c>
+      <c r="N65" s="38">
+        <v>2</v>
+      </c>
+      <c r="O65" s="38">
+        <v>0</v>
+      </c>
+      <c r="P65" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="38">
+        <v>8</v>
+      </c>
+      <c r="S65" s="39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="67" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="68" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M68" s="38">
+        <v>1</v>
+      </c>
+      <c r="N68" s="38">
+        <v>0</v>
+      </c>
+      <c r="O68" s="38">
+        <v>0</v>
+      </c>
+      <c r="P68" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M69" s="38">
+        <f t="shared" ref="M69:Q69" si="15">M61-M60*$S$61</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="38">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="38">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P69" s="38">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="Q69" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M70" s="38">
+        <f t="shared" ref="M70:Q70" si="16">M62-M60*$S$62</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="38">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="O70" s="38">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="P70" s="38">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="38">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="S70" s="39">
+        <f t="shared" ref="S70:S73" si="17">N70/$N$69</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M71" s="38">
+        <f t="shared" ref="M71:Q71" si="18">M63-M60*$S$63</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="38">
+        <f t="shared" si="18"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O71" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P71" s="38">
+        <f t="shared" si="18"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q71" s="38">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S71" s="39">
+        <f t="shared" si="17"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M72" s="38">
+        <f t="shared" ref="M72:Q72" si="19">M64-M60*$S$64</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="38">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="O72" s="38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="38">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q72" s="38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="39">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M73" s="38">
+        <f t="shared" ref="M73:Q73" si="20">M65-M60*$S$65</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="38">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O73" s="38">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="P73" s="38">
+        <f t="shared" si="20"/>
+        <v>-9</v>
+      </c>
+      <c r="Q73" s="38">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="S73" s="39">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="75" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="76" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M76" s="38">
+        <v>1</v>
+      </c>
+      <c r="N76" s="38">
+        <v>0</v>
+      </c>
+      <c r="O76" s="38">
+        <v>0</v>
+      </c>
+      <c r="P76" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M77" s="38">
+        <v>0</v>
+      </c>
+      <c r="N77" s="38">
+        <v>1</v>
+      </c>
+      <c r="O77" s="38">
+        <v>10</v>
+      </c>
+      <c r="P77" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M78" s="38">
+        <v>0</v>
+      </c>
+      <c r="N78" s="38">
+        <f t="shared" ref="N78:Q78" si="21">N70-N69*$S$70</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="38">
+        <f t="shared" si="21"/>
+        <v>-108</v>
+      </c>
+      <c r="P78" s="38">
+        <f t="shared" si="21"/>
+        <v>-21</v>
+      </c>
+      <c r="Q78" s="38">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M79" s="38">
+        <v>0</v>
+      </c>
+      <c r="N79" s="38">
+        <f t="shared" ref="N79:Q79" si="22">N71-N69*$S$71</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="38">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="P79" s="38">
+        <f t="shared" si="22"/>
+        <v>6.5</v>
+      </c>
+      <c r="Q79" s="38">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="S79" s="40">
+        <f t="shared" ref="S79:S81" si="23">O79/$O$78</f>
+        <v>-3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M80" s="38">
+        <v>0</v>
+      </c>
+      <c r="N80" s="38">
+        <f t="shared" ref="N80:Q80" si="24">N72-N69*$S$72</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="38">
+        <f t="shared" si="24"/>
+        <v>-50</v>
+      </c>
+      <c r="P80" s="38">
+        <f t="shared" si="24"/>
+        <v>-6</v>
+      </c>
+      <c r="Q80" s="38">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="40">
+        <f t="shared" si="23"/>
+        <v>0.46296296296296297</v>
+      </c>
+    </row>
+    <row r="81" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M81" s="38">
+        <v>0</v>
+      </c>
+      <c r="N81" s="38">
+        <f t="shared" ref="N81:Q81" si="25">N73-N69*$S$73</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="38">
+        <f t="shared" si="25"/>
+        <v>-12</v>
+      </c>
+      <c r="P81" s="38">
+        <f t="shared" si="25"/>
+        <v>-11</v>
+      </c>
+      <c r="Q81" s="38">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="S81" s="40">
+        <f t="shared" si="23"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="82" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="83" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="84" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M84" s="38">
+        <v>1</v>
+      </c>
+      <c r="N84" s="38">
+        <v>0</v>
+      </c>
+      <c r="O84" s="38">
+        <v>0</v>
+      </c>
+      <c r="P84" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M85" s="38">
+        <v>0</v>
+      </c>
+      <c r="N85" s="38">
+        <v>1</v>
+      </c>
+      <c r="O85" s="38">
+        <v>10</v>
+      </c>
+      <c r="P85" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M86" s="38">
+        <v>0</v>
+      </c>
+      <c r="N86" s="38">
+        <v>0</v>
+      </c>
+      <c r="O86" s="38">
+        <v>-108</v>
+      </c>
+      <c r="P86" s="38">
+        <v>-21</v>
+      </c>
+      <c r="Q86" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M87" s="38">
+        <v>0</v>
+      </c>
+      <c r="N87" s="38">
+        <v>0</v>
+      </c>
+      <c r="O87" s="38">
+        <f t="shared" ref="O87:Q87" si="26">O79-O78*$S$79</f>
+        <v>0</v>
+      </c>
+      <c r="P87" s="38">
+        <f t="shared" si="26"/>
+        <v>5.7222222222222223</v>
+      </c>
+      <c r="Q87" s="38">
+        <f t="shared" si="26"/>
+        <v>1.074074074074074</v>
+      </c>
+    </row>
+    <row r="88" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M88" s="38">
+        <v>0</v>
+      </c>
+      <c r="N88" s="38">
+        <v>0</v>
+      </c>
+      <c r="O88" s="38">
+        <f t="shared" ref="O88:Q88" si="27">O80-O78*$S$80</f>
+        <v>0</v>
+      </c>
+      <c r="P88" s="38">
+        <f t="shared" si="27"/>
+        <v>3.7222222222222214</v>
+      </c>
+      <c r="Q88" s="38">
+        <f t="shared" si="27"/>
+        <v>-0.92592592592592593</v>
+      </c>
+      <c r="S88" s="40">
+        <f t="shared" ref="S88:S89" si="28">P88/$P$87</f>
+        <v>0.65048543689320371</v>
+      </c>
+    </row>
+    <row r="89" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M89" s="38">
+        <v>0</v>
+      </c>
+      <c r="N89" s="38">
+        <v>0</v>
+      </c>
+      <c r="O89" s="38">
+        <f t="shared" ref="O89:Q89" si="29">O81-O78*$S$81</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="38">
+        <f t="shared" si="29"/>
+        <v>-8.6666666666666679</v>
+      </c>
+      <c r="Q89" s="38">
+        <f t="shared" si="29"/>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="S89" s="40">
+        <f t="shared" si="28"/>
+        <v>-1.5145631067961167</v>
+      </c>
+    </row>
+    <row r="90" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="91" spans="13:19" ht="15.75" customHeight="1"/>
+    <row r="92" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M92" s="38">
+        <v>1</v>
+      </c>
+      <c r="N92" s="38">
+        <v>0</v>
+      </c>
+      <c r="O92" s="38">
+        <v>0</v>
+      </c>
+      <c r="P92" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M93" s="38">
+        <v>0</v>
+      </c>
+      <c r="N93" s="38">
+        <v>1</v>
+      </c>
+      <c r="O93" s="38">
+        <v>10</v>
+      </c>
+      <c r="P93" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M94" s="38">
+        <v>0</v>
+      </c>
+      <c r="N94" s="38">
+        <v>0</v>
+      </c>
+      <c r="O94" s="38">
+        <v>-108</v>
+      </c>
+      <c r="P94" s="38">
+        <v>-21</v>
+      </c>
+      <c r="Q94" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M95" s="38">
+        <v>0</v>
+      </c>
+      <c r="N95" s="38">
+        <v>0</v>
+      </c>
+      <c r="O95" s="38">
+        <v>0</v>
+      </c>
+      <c r="P95" s="38">
+        <v>5.7222222222222223</v>
+      </c>
+      <c r="Q95" s="38">
+        <v>1.074074074074074</v>
+      </c>
+    </row>
+    <row r="96" spans="13:19" ht="15.75" customHeight="1">
+      <c r="M96" s="38">
+        <v>0</v>
+      </c>
+      <c r="N96" s="38">
+        <v>0</v>
+      </c>
+      <c r="O96" s="38">
+        <v>0</v>
+      </c>
+      <c r="P96" s="38">
+        <f t="shared" ref="P96:Q96" si="30">P88-P87*$S$88</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="38">
+        <f t="shared" si="30"/>
+        <v>-1.624595469255663</v>
+      </c>
+    </row>
+    <row r="97" spans="13:17" ht="15.75" customHeight="1">
+      <c r="M97" s="38">
+        <v>0</v>
+      </c>
+      <c r="N97" s="38">
+        <v>0</v>
+      </c>
+      <c r="O97" s="38">
+        <v>0</v>
+      </c>
+      <c r="P97" s="38">
+        <f t="shared" ref="P97:Q97" si="31">P89-P87*$S$89</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="38">
+        <f t="shared" si="31"/>
+        <v>9.4045307443365687</v>
+      </c>
+    </row>
+    <row r="98" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="99" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="100" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="101" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="102" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="103" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="104" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="105" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="106" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="107" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="108" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="109" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="110" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="111" spans="13:17" ht="15.75" customHeight="1"/>
+    <row r="112" spans="13:17" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -6784,16 +7958,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>